--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/HAWAII_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/HAWAII_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,34 +360,34 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BAJA CALIFORNIA</t>
+          <t>Baja California</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MEXICALI</t>
+          <t>Mexicali</t>
         </is>
       </c>
       <c r="C2">
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>TECATE</t>
+          <t>Tecate</t>
         </is>
       </c>
       <c r="C3">
@@ -413,7 +413,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>TIJUANA</t>
+          <t>Tijuana</t>
         </is>
       </c>
       <c r="C4">
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C5">
@@ -439,12 +439,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CAMPECHE</t>
+          <t>Campeche</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CHAMPOTÓN</t>
+          <t>Champotón</t>
         </is>
       </c>
       <c r="C6">
@@ -457,7 +457,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C7">
@@ -470,12 +470,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHIAPAS</t>
+          <t>Chiapas</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ACAPETAHUA</t>
+          <t>Acapetahua</t>
         </is>
       </c>
       <c r="C8">
@@ -488,7 +488,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>JIQUIPILAS</t>
+          <t>Jiquipilas</t>
         </is>
       </c>
       <c r="C9">
@@ -501,7 +501,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>MAPASTEPEC</t>
+          <t>Mapastepec</t>
         </is>
       </c>
       <c r="C10">
@@ -514,7 +514,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>PIJIJIAPAN</t>
+          <t>Pijijiapan</t>
         </is>
       </c>
       <c r="C11">
@@ -527,7 +527,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C12">
@@ -540,12 +540,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="C13">
@@ -558,7 +558,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C14">
@@ -571,7 +571,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C15">
@@ -584,12 +584,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CIUDAD DE MÉXICO</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AZCAPOTZALCO</t>
+          <t>Azcapotzalco</t>
         </is>
       </c>
       <c r="C16">
@@ -602,7 +602,7 @@
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>BENITO JUÁREZ</t>
+          <t>Benito Juárez</t>
         </is>
       </c>
       <c r="C17">
@@ -615,7 +615,7 @@
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>COYOACÁN</t>
+          <t>Coyoacán</t>
         </is>
       </c>
       <c r="C18">
@@ -628,7 +628,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C19">
@@ -641,7 +641,7 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>GUSTAVO A. MADERO</t>
+          <t>Gustavo A. Madero</t>
         </is>
       </c>
       <c r="C20">
@@ -654,7 +654,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>IZTACALCO</t>
+          <t>Iztacalco</t>
         </is>
       </c>
       <c r="C21">
@@ -667,7 +667,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>IZTAPALAPA</t>
+          <t>Iztapalapa</t>
         </is>
       </c>
       <c r="C22">
@@ -680,7 +680,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>MIGUEL HIDALGO</t>
+          <t>Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C23">
@@ -693,7 +693,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C24">
@@ -706,7 +706,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C25">
@@ -719,7 +719,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>ÁLVARO OBREGÓN</t>
+          <t>Álvaro Obregón</t>
         </is>
       </c>
       <c r="C26">
@@ -732,7 +732,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C27">
@@ -745,12 +745,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DURANGO</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NAZAS</t>
+          <t>Nazas</t>
         </is>
       </c>
       <c r="C28">
@@ -763,7 +763,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C29">
@@ -776,12 +776,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ESTADO DE MÉXICO</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CHICOLOAPAN</t>
+          <t>Chicoloapan</t>
         </is>
       </c>
       <c r="C30">
@@ -794,7 +794,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>NEZAHUALCÓYOTL</t>
+          <t>Nezahualcóyotl</t>
         </is>
       </c>
       <c r="C31">
@@ -807,7 +807,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>OZUMBA</t>
+          <t>Ozumba</t>
         </is>
       </c>
       <c r="C32">
@@ -820,7 +820,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>SULTEPEC</t>
+          <t>Sultepec</t>
         </is>
       </c>
       <c r="C33">
@@ -833,7 +833,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>TENANCINGO</t>
+          <t>Tenancingo</t>
         </is>
       </c>
       <c r="C34">
@@ -846,7 +846,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>TOLUCA</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="C35">
@@ -859,7 +859,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>VALLE DE CHALCO SOLIDARIDAD</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C36">
@@ -872,7 +872,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C37">
@@ -885,12 +885,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SALVATIERRA</t>
+          <t>Salvatierra</t>
         </is>
       </c>
       <c r="C38">
@@ -903,7 +903,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C39">
@@ -916,12 +916,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BUENAVISTA DE CUÉLLAR</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C40">
@@ -934,7 +934,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>PUNGARABATO</t>
+          <t>Pungarabato</t>
         </is>
       </c>
       <c r="C41">
@@ -947,7 +947,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C42">
@@ -960,12 +960,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ACAXOCHITLÁN</t>
+          <t>Acaxochitlán</t>
         </is>
       </c>
       <c r="C43">
@@ -978,7 +978,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>ACTOPAN</t>
+          <t>Actopan</t>
         </is>
       </c>
       <c r="C44">
@@ -991,7 +991,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>ATOTONILCO EL GRANDE</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C45">
@@ -1004,7 +1004,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>METEPEC</t>
+          <t>Metepec</t>
         </is>
       </c>
       <c r="C46">
@@ -1017,7 +1017,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>TULANCINGO DE BRAVO</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C47">
@@ -1030,7 +1030,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C48">
@@ -1043,12 +1043,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>JALISCO</t>
+          <t>Jalisco</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ARANDAS</t>
+          <t>Arandas</t>
         </is>
       </c>
       <c r="C49">
@@ -1061,7 +1061,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>AUTLÁN DE NAVARRO</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C50">
@@ -1074,7 +1074,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>CASIMIRO CASTILLO</t>
+          <t>Casimiro Castillo</t>
         </is>
       </c>
       <c r="C51">
@@ -1087,7 +1087,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>GUADALAJARA</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="C52">
@@ -1100,7 +1100,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>LA HUERTA</t>
+          <t>La Huerta</t>
         </is>
       </c>
       <c r="C53">
@@ -1113,7 +1113,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>MAGDALENA</t>
+          <t>Magdalena</t>
         </is>
       </c>
       <c r="C54">
@@ -1126,7 +1126,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>SAN PEDRO TLAQUEPAQUE</t>
+          <t>San Pedro Tlaquepaque</t>
         </is>
       </c>
       <c r="C55">
@@ -1139,7 +1139,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>TONALÁ</t>
+          <t>Tonalá</t>
         </is>
       </c>
       <c r="C56">
@@ -1152,7 +1152,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>TUXPAN</t>
+          <t>Tuxpan</t>
         </is>
       </c>
       <c r="C57">
@@ -1165,7 +1165,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C58">
@@ -1178,12 +1178,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>MICHOACÁN DE OCAMPO</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>LA PIEDAD</t>
+          <t>La Piedad</t>
         </is>
       </c>
       <c r="C59">
@@ -1196,7 +1196,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>LOS REYES</t>
+          <t>Los Reyes</t>
         </is>
       </c>
       <c r="C60">
@@ -1209,7 +1209,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>PURUÁNDIRO</t>
+          <t>Puruándiro</t>
         </is>
       </c>
       <c r="C61">
@@ -1222,7 +1222,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>SALVADOR ESCALANTE</t>
+          <t>Salvador Escalante</t>
         </is>
       </c>
       <c r="C62">
@@ -1235,7 +1235,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>VILLAMAR</t>
+          <t>Villamar</t>
         </is>
       </c>
       <c r="C63">
@@ -1248,7 +1248,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>ZACAPU</t>
+          <t>Zacapu</t>
         </is>
       </c>
       <c r="C64">
@@ -1261,7 +1261,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>ZAMORA</t>
+          <t>Zamora</t>
         </is>
       </c>
       <c r="C65">
@@ -1274,7 +1274,7 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C66">
@@ -1287,12 +1287,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>NAYARIT</t>
+          <t>Nayarit</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>LA YESCA</t>
+          <t>La Yesca</t>
         </is>
       </c>
       <c r="C67">
@@ -1305,7 +1305,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>SAN BLAS</t>
+          <t>San Blas</t>
         </is>
       </c>
       <c r="C68">
@@ -1318,7 +1318,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>SANTA MARÍA DEL ORO</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C69">
@@ -1331,7 +1331,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>TEPIC</t>
+          <t>Tepic</t>
         </is>
       </c>
       <c r="C70">
@@ -1344,7 +1344,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C71">
@@ -1357,12 +1357,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>OAXACA</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>CHALCATONGO DE HIDALGO</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C72">
@@ -1375,7 +1375,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>HEROICA CIUDAD DE JUCHITÁN DE ZARAGOZA</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C73">
@@ -1388,7 +1388,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>HEROICA CIUDAD DE TLAXIACO</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C74">
@@ -1401,7 +1401,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>PUTLA VILLA DE GUERRERO</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C75">
@@ -1414,7 +1414,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS CABECERA NUEVA</t>
+          <t>San Andrés Cabecera Nueva</t>
         </is>
       </c>
       <c r="C76">
@@ -1427,7 +1427,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO DEL MAR</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C77">
@@ -1440,7 +1440,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>SANTA MARÍA CORTIJO</t>
+          <t>Santa María Cortijo</t>
         </is>
       </c>
       <c r="C78">
@@ -1453,7 +1453,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>SANTIAGO JAMILTEPEC</t>
+          <t>Santiago Jamiltepec</t>
         </is>
       </c>
       <c r="C79">
@@ -1466,7 +1466,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO TEHUANTEPEC</t>
+          <t>Santo Domingo Tehuantepec</t>
         </is>
       </c>
       <c r="C80">
@@ -1479,7 +1479,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>SANTO TOMÁS OCOTEPEC</t>
+          <t>Santo Tomás Ocotepec</t>
         </is>
       </c>
       <c r="C81">
@@ -1492,7 +1492,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C82">
@@ -1505,12 +1505,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>LIBRES</t>
+          <t>Libres</t>
         </is>
       </c>
       <c r="C83">
@@ -1523,7 +1523,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>LOS REYES DE JUÁREZ</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C84">
@@ -1536,7 +1536,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>TETELA DE OCAMPO</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C85">
@@ -1549,7 +1549,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>TLACHICHUCA</t>
+          <t>Tlachichuca</t>
         </is>
       </c>
       <c r="C86">
@@ -1562,7 +1562,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C87">
@@ -1575,12 +1575,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>AMEALCO DE BONFIL</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C88">
@@ -1593,7 +1593,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>CADEREYTA DE MONTES</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C89">
@@ -1606,7 +1606,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C90">
@@ -1619,12 +1619,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSÍ</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TAMAZUNCHALE</t>
+          <t>Tamazunchale</t>
         </is>
       </c>
       <c r="C91">
@@ -1637,7 +1637,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C92">
@@ -1650,12 +1650,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SINALOA</t>
+          <t>Sinaloa</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>EL FUERTE</t>
+          <t>El Fuerte</t>
         </is>
       </c>
       <c r="C93">
@@ -1668,7 +1668,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C94">
@@ -1681,12 +1681,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SONORA</t>
+          <t>Sonora</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>HERMOSILLO</t>
+          <t>Hermosillo</t>
         </is>
       </c>
       <c r="C95">
@@ -1699,7 +1699,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C96">
@@ -1712,12 +1712,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>TABASCO</t>
+          <t>Tabasco</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>JALAPA</t>
+          <t>Jalapa</t>
         </is>
       </c>
       <c r="C97">
@@ -1730,7 +1730,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C98">
@@ -1743,12 +1743,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>TLAXCALA</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>HUAMANTLA</t>
+          <t>Huamantla</t>
         </is>
       </c>
       <c r="C99">
@@ -1761,7 +1761,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C100">
@@ -1774,12 +1774,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>VERACRUZ DE IGNACIO DE LA LLAVE</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>PAPANTLA</t>
+          <t>Papantla</t>
         </is>
       </c>
       <c r="C101">
@@ -1792,7 +1792,7 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C102">
@@ -1805,12 +1805,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>SAIN ALTO</t>
+          <t>Sain Alto</t>
         </is>
       </c>
       <c r="C103">
@@ -1823,7 +1823,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>VALPARAÍSO</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="C104">
@@ -1836,7 +1836,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C105">
@@ -1849,7 +1849,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C106">
@@ -1857,41 +1857,6 @@
       </c>
       <c r="D106">
         <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 789,030</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Noviembre de 2024</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/HAWAII_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/HAWAII_2023.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Tecate</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Jiquipilas</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Pijijiapan</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Total</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -600,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -613,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -626,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -678,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -691,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
@@ -704,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -717,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Álvaro Obregón</t>
@@ -730,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Total</t>
@@ -761,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Total</t>
@@ -792,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -805,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Ozumba</t>
@@ -818,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Sultepec</t>
@@ -831,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Tenancingo</t>
@@ -844,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -857,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Valle De Chalco Solidaridad</t>
@@ -870,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Total</t>
@@ -901,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Total</t>
@@ -932,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Pungarabato</t>
@@ -945,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Total</t>
@@ -976,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Actopan</t>
@@ -989,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Atotonilco El Grande</t>
@@ -1002,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Metepec</t>
@@ -1015,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -1028,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1059,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Autlán De Navarro</t>
@@ -1072,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Casimiro Castillo</t>
@@ -1085,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1098,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>La Huerta</t>
@@ -1111,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Magdalena</t>
@@ -1124,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>San Pedro Tlaquepaque</t>
@@ -1137,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -1150,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -1163,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1194,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Los Reyes</t>
@@ -1207,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Puruándiro</t>
@@ -1220,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Salvador Escalante</t>
@@ -1233,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Villamar</t>
@@ -1246,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -1259,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -1272,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1303,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>San Blas</t>
@@ -1316,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Santa María Del Oro</t>
@@ -1329,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -1342,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1373,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Juchitán De Zaragoza</t>
@@ -1386,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Tlaxiaco</t>
@@ -1399,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -1412,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>San Andrés Cabecera Nueva</t>
@@ -1425,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>San Francisco Del Mar</t>
@@ -1438,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Santa María Cortijo</t>
@@ -1451,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Santiago Jamiltepec</t>
@@ -1464,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Santo Domingo Tehuantepec</t>
@@ -1477,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Santo Tomás Ocotepec</t>
@@ -1490,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1521,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Los Reyes De Juárez</t>
@@ -1534,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Tetela De Ocampo</t>
@@ -1547,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Tlachichuca</t>
@@ -1560,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1591,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Cadereyta De Montes</t>
@@ -1604,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1635,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1666,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1697,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1728,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1759,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1790,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1821,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Valparaíso</t>
@@ -1834,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Total</t>
